--- a/XZDHospital2BMS/XZDHospital2BMS/Excel/Template/01入库单.xlsx
+++ b/XZDHospital2BMS/XZDHospital2BMS/Excel/Template/01入库单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="21555" windowHeight="9630"/>
@@ -16,65 +16,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>一次性帽子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手奥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">           江西鑫源医疗有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">            区二院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2019   12   31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">个 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个</t>
+    <t>&amp;=[DataTable].name_product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[DataTable].unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[DataTable].amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[DataTable].price_unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[DataTable].price_total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=$DateShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=$SalesCompany</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,11 +112,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -210,6 +195,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -244,6 +230,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -419,14 +406,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="5.5" customWidth="1"/>
@@ -438,23 +425,23 @@
     <col min="8" max="8" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -464,7 +451,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -474,7 +461,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="28.5" customHeight="1">
+    <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -484,47 +471,37 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="24" customHeight="1">
+    <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="24" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="24" customHeight="1">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -534,7 +511,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="24" customHeight="1">
+    <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -544,7 +521,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="24" customHeight="1">
+    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -554,7 +531,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -564,7 +541,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -574,7 +551,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -584,7 +561,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -594,7 +571,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -604,7 +581,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -627,12 +604,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -640,12 +617,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
